--- a/data/trans_dic/P36BPD13_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8540792004021248</v>
+        <v>0.854079200402125</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.90209619238439</v>
+        <v>0.9020961923843899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8766064157609594</v>
+        <v>0.8766064157609595</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.817025151853622</v>
+        <v>0.8221833342248869</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8773650956830261</v>
+        <v>0.878126566500337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8537076450969775</v>
+        <v>0.8538852638159602</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8821988535740904</v>
+        <v>0.8841185864419217</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9232797780082048</v>
+        <v>0.9234182332960993</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8948498596202938</v>
+        <v>0.895947140343717</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8366339700268363</v>
+        <v>0.8366339700268361</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.8793779501198469</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.794386216092839</v>
+        <v>0.7940947060623709</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8477058741624797</v>
+        <v>0.8463370729583742</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8326692693907003</v>
+        <v>0.8332778938136982</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8708157142826762</v>
+        <v>0.8725932905752291</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9026341655737007</v>
+        <v>0.905972314199043</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8790834696797774</v>
+        <v>0.8804606945744011</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.8288722170275944</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8804356935791929</v>
+        <v>0.8804356935791932</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8434260878241272</v>
+        <v>0.843426087824127</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7901472360162654</v>
+        <v>0.7879976439228918</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8273201584281371</v>
+        <v>0.834343681417169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8137566963484426</v>
+        <v>0.8097100468185517</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8690357591248122</v>
+        <v>0.8680136388727666</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9183076990567667</v>
+        <v>0.9186204633888563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8707010226955026</v>
+        <v>0.8710236894348689</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.8471368040383794</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8640969840325642</v>
+        <v>0.8640969840325643</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8544714505751601</v>
+        <v>0.8544714505751599</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8218081359352862</v>
+        <v>0.8225584918763409</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8428316132974727</v>
+        <v>0.8413049664987461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8385715285598686</v>
+        <v>0.8354082427797862</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8694500094587047</v>
+        <v>0.86913024123287</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8864477365571147</v>
+        <v>0.8820784596480237</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.87109643600521</v>
+        <v>0.8701981217531179</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8373488859017371</v>
+        <v>0.837348885901737</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8818799055830256</v>
+        <v>0.8818799055830253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8638126628614266</v>
+        <v>0.8638126628614267</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7976331319874451</v>
+        <v>0.8029003588177226</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8625497855477069</v>
+        <v>0.8605836946784946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8434893685897015</v>
+        <v>0.8443176206048413</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8697012174788598</v>
+        <v>0.8697560452085079</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8992254489313048</v>
+        <v>0.8983042500775912</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.880932419487174</v>
+        <v>0.8809264078171165</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9035139372239415</v>
+        <v>0.9035139372239414</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8687487490103085</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8764105565115431</v>
+        <v>0.8764105565115429</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8342388037714944</v>
+        <v>0.8269496768221674</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8441640121860504</v>
+        <v>0.8422726719821408</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8495938973230208</v>
+        <v>0.8499912114300854</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9596493093434069</v>
+        <v>0.9572249053489156</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8900594326907548</v>
+        <v>0.8894165961915851</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8959284080791444</v>
+        <v>0.8981765476853971</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.8465796221568082</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8769472805847193</v>
+        <v>0.8769472805847194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8621713125051741</v>
+        <v>0.862171312505174</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8312907623182028</v>
+        <v>0.8320728699326028</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8672664777372581</v>
+        <v>0.8676335795037795</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8527565236703462</v>
+        <v>0.8528358282343794</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8593876754179988</v>
+        <v>0.8601258689761085</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8870494111407407</v>
+        <v>0.8870922177494643</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8706205894516369</v>
+        <v>0.8700401151606147</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>447505</v>
+        <v>450330</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>424703</v>
+        <v>425071</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>880848</v>
+        <v>881031</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>483202</v>
+        <v>484254</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>446928</v>
+        <v>446995</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>923298</v>
+        <v>924430</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>380185</v>
+        <v>380046</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>354791</v>
+        <v>354218</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>747005</v>
+        <v>747551</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>416764</v>
+        <v>417614</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>377780</v>
+        <v>379177</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>788644</v>
+        <v>789880</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>369204</v>
+        <v>368200</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>152018</v>
+        <v>153309</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>529762</v>
+        <v>527128</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>406066</v>
+        <v>405588</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>168737</v>
+        <v>168795</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>566833</v>
+        <v>567043</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>925560</v>
+        <v>926405</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>723318</v>
+        <v>722008</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1664102</v>
+        <v>1657824</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>979216</v>
+        <v>978856</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>760749</v>
+        <v>757000</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1728646</v>
+        <v>1726863</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>450006</v>
+        <v>452978</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>712787</v>
+        <v>711162</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1172913</v>
+        <v>1174065</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>490665</v>
+        <v>490696</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>743095</v>
+        <v>742333</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1224980</v>
+        <v>1224971</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>197905</v>
+        <v>196176</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>708410</v>
+        <v>706823</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>914514</v>
+        <v>914942</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>227656</v>
+        <v>227081</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>746925</v>
+        <v>746385</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>964389</v>
+        <v>966809</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2844036</v>
+        <v>2846712</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3130920</v>
+        <v>3132245</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5996013</v>
+        <v>5996570</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2940162</v>
+        <v>2942688</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3202338</v>
+        <v>3202493</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6121621</v>
+        <v>6117539</v>
       </c>
     </row>
     <row r="32">
